--- a/docs/base/ValueSet-organization-identifier.xlsx
+++ b/docs/base/ValueSet-organization-identifier.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T15:58:38+02:00</t>
+    <t>2025-10-30T19:04:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,19 +105,22 @@
     <t>http://esveikata.lt/Identifier/SVEIDRAID</t>
   </si>
   <si>
-    <t>http://esveikata.lt/classifiers/Identifier/JAR</t>
+    <t>http://esveikata.lt/Identifier/SPILIS</t>
   </si>
   <si>
     <t>http://esveikata.lt/Identifier/ESPBI</t>
   </si>
   <si>
+    <t>http://esveikata.lt/Identifier/VAPRIS</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>https://hl7.lt/fhir/CodeSystem/identifier-domain</t>
+    <t>https://hl7.lt/fhir/tx/CodeSystem/identifier-domain</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,16 +427,22 @@
       <c r="A5" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
         <v>33</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>34</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
